--- a/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
+++ b/Results/MultivModels_DOnsetMin#11#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#FC.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4073629822592317</v>
+        <v>-0.002214564760636826</v>
       </c>
       <c r="C2">
-        <v>0.2360575193468304</v>
+        <v>0.000822233205613937</v>
       </c>
       <c r="D2">
-        <v>-0.2333408182933266</v>
+        <v>-0.00224878164670187</v>
       </c>
       <c r="E2">
-        <v>-0.302529047979781</v>
+        <v>-0.001317655124594565</v>
       </c>
       <c r="F2">
-        <v>-0.2552987459094414</v>
+        <v>-0.001931889129652511</v>
       </c>
       <c r="G2">
-        <v>-0.4594366287359878</v>
+        <v>-0.003558886417954689</v>
       </c>
       <c r="H2">
-        <v>-0.4207036156109415</v>
+        <v>-0.002945855203636634</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.00326602755602995</v>
+        <v>-0.3171709343280879</v>
       </c>
       <c r="C3">
-        <v>0.001630119513995856</v>
+        <v>0.1820441990233721</v>
       </c>
       <c r="D3">
-        <v>-0.002383789599293677</v>
+        <v>-0.2737967274255788</v>
       </c>
       <c r="E3">
-        <v>-0.002975198460432832</v>
+        <v>-0.1713649166393863</v>
       </c>
       <c r="F3">
-        <v>-0.00217294744909209</v>
+        <v>-0.3293409395162689</v>
       </c>
       <c r="G3">
-        <v>-0.00376436411748376</v>
+        <v>-0.3937327098841861</v>
       </c>
       <c r="H3">
-        <v>-0.003474752006630074</v>
+        <v>-0.325033977523228</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.8175789922025521</v>
+        <v>-0.171942411139652</v>
       </c>
       <c r="C4">
-        <v>0.5096204404810698</v>
+        <v>0.07512089389017919</v>
       </c>
       <c r="D4">
-        <v>-0.4101706264121352</v>
+        <v>-0.1676388749169084</v>
       </c>
       <c r="E4">
-        <v>-0.3819118715318172</v>
+        <v>-0.1041446853559647</v>
       </c>
       <c r="F4">
-        <v>-0.5482198041333268</v>
+        <v>-0.1344812517274541</v>
       </c>
       <c r="G4">
-        <v>-0.8625768942657197</v>
+        <v>-0.2150604885707581</v>
       </c>
       <c r="H4">
-        <v>-0.4943249763508686</v>
+        <v>-0.1684715719975747</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.02194525202682109</v>
+        <v>-0.4683260397911293</v>
       </c>
       <c r="C5">
-        <v>0.0088200680495605</v>
+        <v>0.3056885575170037</v>
       </c>
       <c r="D5">
-        <v>-0.0195364649580069</v>
+        <v>-0.3942207664170768</v>
       </c>
       <c r="E5">
-        <v>-0.01865898066271109</v>
+        <v>-0.2950692799932894</v>
       </c>
       <c r="F5">
-        <v>-0.019963721686271</v>
+        <v>-0.4641887312963774</v>
       </c>
       <c r="G5">
-        <v>-0.03289133402296959</v>
+        <v>-0.4704894909320861</v>
       </c>
       <c r="H5">
-        <v>-0.02699567498495045</v>
+        <v>-0.4720899079721164</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6542828381871885</v>
+        <v>-0.6883695236288835</v>
       </c>
       <c r="C6">
-        <v>0.3215782518229172</v>
+        <v>0.5358701239757208</v>
       </c>
       <c r="D6">
-        <v>-0.1234340010182582</v>
+        <v>-0.2058994041778483</v>
       </c>
       <c r="E6">
-        <v>-0.1442072478836939</v>
+        <v>-0.2902147508072471</v>
       </c>
       <c r="F6">
-        <v>-0.07726209022086661</v>
+        <v>-0.5557438229207742</v>
       </c>
       <c r="G6">
-        <v>-1.218087732590657</v>
+        <v>-0.9392792041995548</v>
       </c>
       <c r="H6">
-        <v>-0.3950813461838612</v>
+        <v>-0.3955837416425153</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.1602857131447749</v>
+        <v>-0.3914980130312615</v>
       </c>
       <c r="C7">
-        <v>0.05216286163717431</v>
+        <v>0.2758585809610795</v>
       </c>
       <c r="D7">
-        <v>-0.136886544391578</v>
+        <v>-0.222419909846035</v>
       </c>
       <c r="E7">
-        <v>-0.0837301623857768</v>
+        <v>-0.2741240641950018</v>
       </c>
       <c r="F7">
-        <v>-0.1455697359130491</v>
+        <v>-0.3437349687786559</v>
       </c>
       <c r="G7">
-        <v>-0.2267627841496464</v>
+        <v>-0.5454077967538109</v>
       </c>
       <c r="H7">
-        <v>-0.1727225085339384</v>
+        <v>-0.3058606555506775</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.02303748889011249</v>
+        <v>-0.002437869635097113</v>
       </c>
       <c r="C8">
-        <v>0.01354676387066562</v>
+        <v>0.0008709407052676576</v>
       </c>
       <c r="D8">
-        <v>-0.0145466172701338</v>
+        <v>-0.001710471393971699</v>
       </c>
       <c r="E8">
-        <v>-0.01283889601832487</v>
+        <v>-0.001752110964027682</v>
       </c>
       <c r="F8">
-        <v>-0.02217191496938688</v>
+        <v>-0.002223085259664435</v>
       </c>
       <c r="G8">
-        <v>-0.03415376549807096</v>
+        <v>-0.003729133487724367</v>
       </c>
       <c r="H8">
-        <v>-0.03054196085580685</v>
+        <v>-0.003195551264332523</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.3062444304778094</v>
+        <v>-0.3813010131889582</v>
       </c>
       <c r="C9">
-        <v>0.2161026013549826</v>
+        <v>0.1973301315522585</v>
       </c>
       <c r="D9">
-        <v>-0.1604746105394256</v>
+        <v>-0.2164899694769956</v>
       </c>
       <c r="E9">
-        <v>-0.2432555109485277</v>
+        <v>-0.144169593938093</v>
       </c>
       <c r="F9">
-        <v>-0.2865854841375633</v>
+        <v>-0.25129287389381</v>
       </c>
       <c r="G9">
-        <v>-0.4754420016101188</v>
+        <v>-0.5586550679207625</v>
       </c>
       <c r="H9">
-        <v>-0.2370576198837563</v>
+        <v>-0.3908250091299866</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.00234563814349363</v>
+        <v>-0.002541969850113181</v>
       </c>
       <c r="C10">
-        <v>0.0008076853354292777</v>
+        <v>0.001493875306024755</v>
       </c>
       <c r="D10">
-        <v>-0.001925946476874821</v>
+        <v>-0.001632459131254338</v>
       </c>
       <c r="E10">
-        <v>-0.001900758610904453</v>
+        <v>-0.001834864492004918</v>
       </c>
       <c r="F10">
-        <v>-0.003020606341962963</v>
+        <v>-0.002816061453899499</v>
       </c>
       <c r="G10">
-        <v>-0.003258804952736774</v>
+        <v>-0.003647960984250452</v>
       </c>
       <c r="H10">
-        <v>-0.002594398365377901</v>
+        <v>-0.002819905134492034</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.491825454366702</v>
+        <v>-0.4432785726376049</v>
       </c>
       <c r="C11">
-        <v>0.4568722224018035</v>
+        <v>0.5775291368335992</v>
       </c>
       <c r="D11">
-        <v>-0.2009709004184995</v>
+        <v>-0.4733559543247873</v>
       </c>
       <c r="E11">
-        <v>-0.1474026897372812</v>
+        <v>-0.2043384458455457</v>
       </c>
       <c r="F11">
-        <v>-0.2930290775881691</v>
+        <v>-0.2978319301527554</v>
       </c>
       <c r="G11">
-        <v>-0.8247986546265137</v>
+        <v>-0.5088650239408983</v>
       </c>
       <c r="H11">
-        <v>-0.5308909843021262</v>
+        <v>-0.3552114283989631</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1784646404403711</v>
+        <v>-0.5086617721090889</v>
       </c>
       <c r="C12">
-        <v>0.1239211689826493</v>
+        <v>0.4086520400695493</v>
       </c>
       <c r="D12">
-        <v>-0.1116334475484183</v>
+        <v>-0.3622138066975696</v>
       </c>
       <c r="E12">
-        <v>-0.1133967381979518</v>
+        <v>-0.1406005798299414</v>
       </c>
       <c r="F12">
-        <v>-0.1357358086784242</v>
+        <v>-0.3051514767397671</v>
       </c>
       <c r="G12">
-        <v>-0.1949684966821823</v>
+        <v>-0.8015484151355803</v>
       </c>
       <c r="H12">
-        <v>-0.2197311121624455</v>
+        <v>-0.4158782682306352</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5124007669461991</v>
+        <v>-0.3608630147334906</v>
       </c>
       <c r="C13">
-        <v>0.4696050163033014</v>
+        <v>0.2984498303547399</v>
       </c>
       <c r="D13">
-        <v>-0.4101643966329212</v>
+        <v>-0.2557333538724939</v>
       </c>
       <c r="E13">
-        <v>-0.39934255495589</v>
+        <v>-0.08120939306436908</v>
       </c>
       <c r="F13">
-        <v>-0.2534972695218879</v>
+        <v>-0.2889280082583066</v>
       </c>
       <c r="G13">
-        <v>-0.4607329018123129</v>
+        <v>-0.4866428795701869</v>
       </c>
       <c r="H13">
-        <v>-0.6811180602430313</v>
+        <v>-0.3610019400342911</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.8845879669421097</v>
+        <v>-0.002589994311779005</v>
       </c>
       <c r="C14">
-        <v>0.7167823497742548</v>
+        <v>0.001807229340783812</v>
       </c>
       <c r="D14">
-        <v>-0.4783061475982839</v>
+        <v>-0.001681092170959646</v>
       </c>
       <c r="E14">
-        <v>-0.5013266632376926</v>
+        <v>-0.001756881123546455</v>
       </c>
       <c r="F14">
-        <v>-0.386885526120185</v>
+        <v>-0.002180246450493389</v>
       </c>
       <c r="G14">
-        <v>-0.5965197113638253</v>
+        <v>-0.003719608947982036</v>
       </c>
       <c r="H14">
-        <v>-1.047773925912287</v>
+        <v>-0.00322362985834711</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.002554400888165058</v>
+        <v>-0.3979121572699904</v>
       </c>
       <c r="C15">
-        <v>0.001515205587673233</v>
+        <v>0.370701656853104</v>
       </c>
       <c r="D15">
-        <v>-0.001913375039323514</v>
+        <v>-0.3615233785882222</v>
       </c>
       <c r="E15">
-        <v>-0.001808017224847824</v>
+        <v>-0.1193100923507414</v>
       </c>
       <c r="F15">
-        <v>-0.002745105209926717</v>
+        <v>-0.4053872063366186</v>
       </c>
       <c r="G15">
-        <v>-0.003379334880688399</v>
+        <v>-0.4521210427561763</v>
       </c>
       <c r="H15">
-        <v>-0.003073682404595398</v>
+        <v>-0.3898086461677385</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.002929988726493566</v>
+        <v>-0.1286266567567118</v>
       </c>
       <c r="C16">
-        <v>0.001528423373831063</v>
+        <v>0.05877389620110452</v>
       </c>
       <c r="D16">
-        <v>-0.001804670333641836</v>
+        <v>-0.1142863831356128</v>
       </c>
       <c r="E16">
-        <v>-0.00200589583855105</v>
+        <v>-0.1252180686689802</v>
       </c>
       <c r="F16">
-        <v>-0.001516859101098784</v>
+        <v>-0.0916292608517482</v>
       </c>
       <c r="G16">
-        <v>-0.004318754316012595</v>
+        <v>-0.1894452253804702</v>
       </c>
       <c r="H16">
-        <v>-0.003540880278651821</v>
+        <v>-0.1760198584669097</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4780094588052707</v>
+        <v>-0.4433419812868126</v>
       </c>
       <c r="C17">
-        <v>0.447578430715183</v>
+        <v>0.2487154391623778</v>
       </c>
       <c r="D17">
-        <v>-0.2750057715435786</v>
+        <v>-0.299204174083542</v>
       </c>
       <c r="E17">
-        <v>-0.1765913326253968</v>
+        <v>-0.3185390280921486</v>
       </c>
       <c r="F17">
-        <v>-0.4643024842274084</v>
+        <v>-0.2303799668507648</v>
       </c>
       <c r="G17">
-        <v>-0.6581737815651744</v>
+        <v>-0.5782407692889794</v>
       </c>
       <c r="H17">
-        <v>-0.4042884741473756</v>
+        <v>-0.4258490197996676</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.3592581678969249</v>
+        <v>-0.3630477987578554</v>
       </c>
       <c r="C18">
-        <v>0.2662888302171669</v>
+        <v>0.4016984364871793</v>
       </c>
       <c r="D18">
-        <v>-0.2455113060711263</v>
+        <v>-0.3150589592628551</v>
       </c>
       <c r="E18">
-        <v>-0.1668579370714732</v>
+        <v>-0.1677922931483946</v>
       </c>
       <c r="F18">
-        <v>-0.111075391252378</v>
+        <v>-0.3655447226330415</v>
       </c>
       <c r="G18">
-        <v>-0.4726486971101699</v>
+        <v>-0.5793911211267627</v>
       </c>
       <c r="H18">
-        <v>-0.4821253907087127</v>
+        <v>-0.2350003242719318</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.1652890077928877</v>
+        <v>-0.1359206958356069</v>
       </c>
       <c r="C19">
-        <v>0.07322417535848741</v>
+        <v>0.1003037608735613</v>
       </c>
       <c r="D19">
-        <v>-0.1019366084044272</v>
+        <v>-0.1357549456575923</v>
       </c>
       <c r="E19">
-        <v>-0.140582719578978</v>
+        <v>-0.1291434565382135</v>
       </c>
       <c r="F19">
-        <v>-0.08016835404163605</v>
+        <v>-0.07257273228452951</v>
       </c>
       <c r="G19">
-        <v>-0.2292053956915777</v>
+        <v>-0.2120127360924017</v>
       </c>
       <c r="H19">
-        <v>-0.1994024616568864</v>
+        <v>-0.132919134391262</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.00244015193578539</v>
+        <v>-0.4147428787257989</v>
       </c>
       <c r="C20">
-        <v>0.00152541565961987</v>
+        <v>0.1517349698212359</v>
       </c>
       <c r="D20">
-        <v>-0.001950025225586927</v>
+        <v>-0.3697210962212935</v>
       </c>
       <c r="E20">
-        <v>-0.001875525614543432</v>
+        <v>-0.3289792250442052</v>
       </c>
       <c r="F20">
-        <v>-0.001195895715239803</v>
+        <v>-0.3393030727535483</v>
       </c>
       <c r="G20">
-        <v>-0.004077814493426596</v>
+        <v>-0.6346039534618186</v>
       </c>
       <c r="H20">
-        <v>-0.002850154850641777</v>
+        <v>-0.1247090051591845</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1670370775212734</v>
+        <v>-0.143255015917814</v>
       </c>
       <c r="C21">
-        <v>0.1168411384042402</v>
+        <v>0.0843837411383274</v>
       </c>
       <c r="D21">
-        <v>-0.085111402244381</v>
+        <v>-0.1350020705269748</v>
       </c>
       <c r="E21">
-        <v>-0.09518233130620618</v>
+        <v>-0.1029159529030907</v>
       </c>
       <c r="F21">
-        <v>-0.1528015712226264</v>
+        <v>-0.09421214863878077</v>
       </c>
       <c r="G21">
-        <v>-0.2373327922620808</v>
+        <v>-0.1982280982087029</v>
       </c>
       <c r="H21">
-        <v>-0.1688883084455843</v>
+        <v>-0.1776882962323499</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.3999192956280982</v>
+        <v>-0.421067190369346</v>
       </c>
       <c r="C22">
-        <v>0.3041383836006565</v>
+        <v>0.3298820282102379</v>
       </c>
       <c r="D22">
-        <v>-0.2618194092671005</v>
+        <v>-0.2585029310080892</v>
       </c>
       <c r="E22">
-        <v>-0.2738528664048383</v>
+        <v>-0.3436047279533664</v>
       </c>
       <c r="F22">
-        <v>-0.1997847430157141</v>
+        <v>-0.3573420209599185</v>
       </c>
       <c r="G22">
-        <v>-0.427966443821266</v>
+        <v>-0.5250273894228739</v>
       </c>
       <c r="H22">
-        <v>-0.414900169578957</v>
+        <v>-0.3260647156790897</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.01986565242377302</v>
+        <v>-0.1610553906629107</v>
       </c>
       <c r="C23">
-        <v>0.007001263842169586</v>
+        <v>0.1008636093089157</v>
       </c>
       <c r="D23">
-        <v>-0.01791214866360146</v>
+        <v>-0.1186573739297116</v>
       </c>
       <c r="E23">
-        <v>-0.01622208808195565</v>
+        <v>-0.1203854410930138</v>
       </c>
       <c r="F23">
-        <v>-0.0109744780339782</v>
+        <v>-0.1091602848294481</v>
       </c>
       <c r="G23">
-        <v>-0.03534853724673002</v>
+        <v>-0.2248748301863277</v>
       </c>
       <c r="H23">
-        <v>-0.02700895421700611</v>
+        <v>-0.1691073757042768</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.6169831402847298</v>
+        <v>-0.1597783924672034</v>
       </c>
       <c r="C24">
-        <v>0.4685314199617383</v>
+        <v>0.1167639178396725</v>
       </c>
       <c r="D24">
-        <v>-0.4303599442543593</v>
+        <v>-0.06239616458940717</v>
       </c>
       <c r="E24">
-        <v>-0.3381292051349855</v>
+        <v>-0.110220686314492</v>
       </c>
       <c r="F24">
-        <v>-0.2761296481029067</v>
+        <v>-0.1181931276242983</v>
       </c>
       <c r="G24">
-        <v>-0.6113098966627648</v>
+        <v>-0.2383677037538602</v>
       </c>
       <c r="H24">
-        <v>-0.6925082138433939</v>
+        <v>-0.1806413187040302</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.002773795318957815</v>
+        <v>-0.4952278144416096</v>
       </c>
       <c r="C25">
-        <v>0.00211792069375286</v>
+        <v>0.2157170199715194</v>
       </c>
       <c r="D25">
-        <v>-0.001640405964995474</v>
+        <v>-0.2393187507009502</v>
       </c>
       <c r="E25">
-        <v>-0.002518768626326783</v>
+        <v>-0.344617786119605</v>
       </c>
       <c r="F25">
-        <v>-0.002463175802337424</v>
+        <v>-0.2802541771443037</v>
       </c>
       <c r="G25">
-        <v>-0.003701516416056644</v>
+        <v>-0.4573181963238389</v>
       </c>
       <c r="H25">
-        <v>-0.002753158692202417</v>
+        <v>-0.4994680488264056</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.002566050121983429</v>
+        <v>-0.00229387486962432</v>
       </c>
       <c r="C26">
-        <v>0.001303018392887139</v>
+        <v>0.001137937673566387</v>
       </c>
       <c r="D26">
-        <v>-0.002288116034611503</v>
+        <v>-0.002277104616446211</v>
       </c>
       <c r="E26">
-        <v>-0.001943343305961347</v>
+        <v>-0.001247442161047754</v>
       </c>
       <c r="F26">
-        <v>-0.001824846767680767</v>
+        <v>-0.001676334461321449</v>
       </c>
       <c r="G26">
-        <v>-0.003633876176134582</v>
+        <v>-0.003652874094183988</v>
       </c>
       <c r="H26">
-        <v>-0.003236386161594492</v>
+        <v>-0.003088389174636553</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.3735318337084892</v>
+        <v>-0.4457545744257131</v>
       </c>
       <c r="C27">
-        <v>0.3014131253935656</v>
+        <v>0.4426124219302586</v>
       </c>
       <c r="D27">
-        <v>-0.191133607299322</v>
+        <v>-0.4045262877505933</v>
       </c>
       <c r="E27">
-        <v>-0.2276366273866376</v>
+        <v>-0.1146634037814177</v>
       </c>
       <c r="F27">
-        <v>-0.1955308763723122</v>
+        <v>-0.1772160413665576</v>
       </c>
       <c r="G27">
-        <v>-0.5575181067429404</v>
+        <v>-0.8078799481680841</v>
       </c>
       <c r="H27">
-        <v>-0.3285000181354393</v>
+        <v>-0.3075571113647085</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.002753931523077408</v>
+        <v>-0.002990148555094212</v>
       </c>
       <c r="C28">
-        <v>0.0008127799076977725</v>
+        <v>0.0007950561367673628</v>
       </c>
       <c r="D28">
-        <v>-0.002165435436195183</v>
+        <v>-0.002524991953461244</v>
       </c>
       <c r="E28">
-        <v>-0.002392189049229572</v>
+        <v>-0.002204092157326057</v>
       </c>
       <c r="F28">
-        <v>-0.00201428347365591</v>
+        <v>-0.0022552577250266</v>
       </c>
       <c r="G28">
-        <v>-0.003727241011952574</v>
+        <v>-0.00429737040079927</v>
       </c>
       <c r="H28">
-        <v>-0.003385585625088116</v>
+        <v>-0.002910426462952466</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.3860738331474803</v>
+        <v>-0.003115033512351123</v>
       </c>
       <c r="C29">
-        <v>0.1379163781313666</v>
+        <v>0.00157751086398728</v>
       </c>
       <c r="D29">
-        <v>-0.2530152033033206</v>
+        <v>-0.002023415282796833</v>
       </c>
       <c r="E29">
-        <v>-0.1943581403207279</v>
+        <v>-0.002605800847175013</v>
       </c>
       <c r="F29">
-        <v>-0.1472033039516502</v>
+        <v>-0.002689543376149705</v>
       </c>
       <c r="G29">
-        <v>-0.4699684572671621</v>
+        <v>-0.003585389383977941</v>
       </c>
       <c r="H29">
-        <v>-0.4643354551764337</v>
+        <v>-0.003521808357868286</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.002639616053349782</v>
+        <v>-0.2903571869917786</v>
       </c>
       <c r="C30">
-        <v>0.001443482907148799</v>
+        <v>0.2730286529734293</v>
       </c>
       <c r="D30">
-        <v>-0.001786514324364872</v>
+        <v>-0.1932392514888665</v>
       </c>
       <c r="E30">
-        <v>-0.001796438931022586</v>
+        <v>-0.1701210706139111</v>
       </c>
       <c r="F30">
-        <v>-0.001289781936584322</v>
+        <v>-0.2278483921884521</v>
       </c>
       <c r="G30">
-        <v>-0.004504567730353272</v>
+        <v>-0.4193099815144772</v>
       </c>
       <c r="H30">
-        <v>-0.002884798187269414</v>
+        <v>-0.313871158065517</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.003351691661683893</v>
+        <v>-0.4975851938583289</v>
       </c>
       <c r="C31">
-        <v>0.001686590247412426</v>
+        <v>0.4582420427374005</v>
       </c>
       <c r="D31">
-        <v>-0.002496936796645125</v>
+        <v>-0.5628202499034304</v>
       </c>
       <c r="E31">
-        <v>-0.002684018601778966</v>
+        <v>-0.2691800852018791</v>
       </c>
       <c r="F31">
-        <v>-0.001894410673895887</v>
+        <v>-0.3493166629551833</v>
       </c>
       <c r="G31">
-        <v>-0.003851562151727942</v>
+        <v>-0.45154746852938</v>
       </c>
       <c r="H31">
-        <v>-0.003832844241616587</v>
+        <v>-0.4724183445971515</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6289800393907514</v>
+        <v>-0.1174834396609972</v>
       </c>
       <c r="C32">
-        <v>0.401547969361957</v>
+        <v>0.07504831913520749</v>
       </c>
       <c r="D32">
-        <v>-0.1210083701871629</v>
+        <v>-0.1093746415341648</v>
       </c>
       <c r="E32">
-        <v>-0.1243780998499395</v>
+        <v>-0.1297854249632187</v>
       </c>
       <c r="F32">
-        <v>-0.4506823972981546</v>
+        <v>-0.08038105313276635</v>
       </c>
       <c r="G32">
-        <v>-1.210962909367608</v>
+        <v>-0.1963957570515701</v>
       </c>
       <c r="H32">
-        <v>-0.2633564686175573</v>
+        <v>-0.1310775419636359</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.3317573982726544</v>
+        <v>-0.4549647644013936</v>
       </c>
       <c r="C33">
-        <v>0.4303453862098145</v>
+        <v>0.1218793878338973</v>
       </c>
       <c r="D33">
-        <v>-0.3033793808365666</v>
+        <v>-0.3187015903368197</v>
       </c>
       <c r="E33">
-        <v>-0.2246544165693416</v>
+        <v>-0.292937052816691</v>
       </c>
       <c r="F33">
-        <v>-0.2071836567274267</v>
+        <v>-0.2424854982802039</v>
       </c>
       <c r="G33">
-        <v>-0.4341052557997013</v>
+        <v>-0.4980577223989062</v>
       </c>
       <c r="H33">
-        <v>-0.3279204870190338</v>
+        <v>-0.4238535251032477</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2740022513345771</v>
+        <v>-0.2976549462808457</v>
       </c>
       <c r="C34">
-        <v>0.2588820307215734</v>
+        <v>0.2147362826051764</v>
       </c>
       <c r="D34">
-        <v>-0.2548283178810202</v>
+        <v>-0.09275828320524579</v>
       </c>
       <c r="E34">
-        <v>-0.2367701457061777</v>
+        <v>-0.2179480204901275</v>
       </c>
       <c r="F34">
-        <v>-0.2629601084373352</v>
+        <v>-0.1578548533613592</v>
       </c>
       <c r="G34">
-        <v>-0.3537127489521247</v>
+        <v>-0.4575235029217241</v>
       </c>
       <c r="H34">
-        <v>-0.2532114249733037</v>
+        <v>-0.378778761323878</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.3430856105039049</v>
+        <v>-0.4245311315589175</v>
       </c>
       <c r="C35">
-        <v>0.2950263681904812</v>
+        <v>0.2448380160230286</v>
       </c>
       <c r="D35">
-        <v>-0.2558440514328902</v>
+        <v>-0.272513255626786</v>
       </c>
       <c r="E35">
-        <v>-0.2070602652287996</v>
+        <v>-0.1806589703063466</v>
       </c>
       <c r="F35">
-        <v>-0.2589769821088518</v>
+        <v>-0.2175486324541544</v>
       </c>
       <c r="G35">
-        <v>-0.4786075046482879</v>
+        <v>-0.4372221426583034</v>
       </c>
       <c r="H35">
-        <v>-0.2652991626546912</v>
+        <v>-0.4781548254486833</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.3233249381119218</v>
+        <v>-0.140524366220422</v>
       </c>
       <c r="C36">
-        <v>0.2195742157190608</v>
+        <v>0.09701406228419687</v>
       </c>
       <c r="D36">
-        <v>-0.202200622760099</v>
+        <v>-0.05559764534544366</v>
       </c>
       <c r="E36">
-        <v>-0.215735522339432</v>
+        <v>-0.1615974117332996</v>
       </c>
       <c r="F36">
-        <v>-0.1588563534987064</v>
+        <v>-0.1384181622216369</v>
       </c>
       <c r="G36">
-        <v>-0.5383838712836471</v>
+        <v>-0.2105051966717735</v>
       </c>
       <c r="H36">
-        <v>-0.2636472816761023</v>
+        <v>-0.1216325466300833</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.4032313131700392</v>
+        <v>-0.3949901442101429</v>
       </c>
       <c r="C37">
-        <v>0.2525868604318117</v>
+        <v>0.4417840558245109</v>
       </c>
       <c r="D37">
-        <v>-0.2964122158272519</v>
+        <v>-0.09652226734211283</v>
       </c>
       <c r="E37">
-        <v>-0.2414134022700131</v>
+        <v>-0.2254454859475378</v>
       </c>
       <c r="F37">
-        <v>-0.1973343172865511</v>
+        <v>-0.5231887883576612</v>
       </c>
       <c r="G37">
-        <v>-0.4006362321617944</v>
+        <v>-0.7009123724236305</v>
       </c>
       <c r="H37">
-        <v>-0.48788801737699</v>
+        <v>-0.2849659745485126</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.5029126797019162</v>
+        <v>-0.002324166015665684</v>
       </c>
       <c r="C38">
-        <v>0.2853605246998199</v>
+        <v>0.001128482317961067</v>
       </c>
       <c r="D38">
-        <v>-0.2842283515885366</v>
+        <v>-0.002070059235864887</v>
       </c>
       <c r="E38">
-        <v>-0.2467795892088085</v>
+        <v>-0.002024762474019466</v>
       </c>
       <c r="F38">
-        <v>-0.5124184525686321</v>
+        <v>-0.00177365991456718</v>
       </c>
       <c r="G38">
-        <v>-0.8029497718542151</v>
+        <v>-0.003607006717911245</v>
       </c>
       <c r="H38">
-        <v>-0.2217785894841313</v>
+        <v>-0.002898907719303735</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.02294108741032691</v>
+        <v>-0.002989495322066923</v>
       </c>
       <c r="C39">
-        <v>0.02061322277752405</v>
+        <v>0.001437594833838866</v>
       </c>
       <c r="D39">
-        <v>-0.01535072102297667</v>
+        <v>-0.001905134853629049</v>
       </c>
       <c r="E39">
-        <v>-0.01914061572562143</v>
+        <v>-0.002423845130869014</v>
       </c>
       <c r="F39">
-        <v>-0.01251931041341425</v>
+        <v>-0.002305581417152946</v>
       </c>
       <c r="G39">
-        <v>-0.0362206983532013</v>
+        <v>-0.003866871942014528</v>
       </c>
       <c r="H39">
-        <v>-0.0261516371319069</v>
+        <v>-0.003489587878308528</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.3735767951542109</v>
+        <v>-0.01783142423064699</v>
       </c>
       <c r="C40">
-        <v>0.4091633029390239</v>
+        <v>0.01976589104465375</v>
       </c>
       <c r="D40">
-        <v>-0.3863194999056495</v>
+        <v>-0.01397437715955072</v>
       </c>
       <c r="E40">
-        <v>-0.3131353171734667</v>
+        <v>-0.0155730896148665</v>
       </c>
       <c r="F40">
-        <v>-0.2375798801687404</v>
+        <v>-0.01643650172438041</v>
       </c>
       <c r="G40">
-        <v>-0.4772048973644188</v>
+        <v>-0.02831462113726072</v>
       </c>
       <c r="H40">
-        <v>-0.2268566910948381</v>
+        <v>-0.02372524374398574</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.02619809230498805</v>
+        <v>-0.003066637410410549</v>
       </c>
       <c r="C41">
-        <v>0.01625281803987959</v>
+        <v>0.001934781066764873</v>
       </c>
       <c r="D41">
-        <v>-0.02133514611762843</v>
+        <v>-0.001872973301260402</v>
       </c>
       <c r="E41">
-        <v>-0.01731972812006206</v>
+        <v>-0.002201778613036018</v>
       </c>
       <c r="F41">
-        <v>-0.01884455910764505</v>
+        <v>-0.00193904651317483</v>
       </c>
       <c r="G41">
-        <v>-0.03779041432727492</v>
+        <v>-0.00425439719329047</v>
       </c>
       <c r="H41">
-        <v>-0.02823042811303109</v>
+        <v>-0.003353729829176775</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.4604312363487763</v>
+        <v>-0.4464626313587184</v>
       </c>
       <c r="C42">
-        <v>0.4054160936163294</v>
+        <v>0.3416908955947409</v>
       </c>
       <c r="D42">
-        <v>-0.2315255686754749</v>
+        <v>-0.08252882799760387</v>
       </c>
       <c r="E42">
-        <v>-0.4394079666597152</v>
+        <v>-0.2896372357463979</v>
       </c>
       <c r="F42">
-        <v>-0.3332750831224774</v>
+        <v>-0.2355612151312871</v>
       </c>
       <c r="G42">
-        <v>-0.713073807304499</v>
+        <v>-0.8191254083464983</v>
       </c>
       <c r="H42">
-        <v>-0.260189330860253</v>
+        <v>-0.4951546583923231</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.002877453515651199</v>
+        <v>-0.003200010739036072</v>
       </c>
       <c r="C43">
-        <v>0.001270647240061498</v>
+        <v>0.001656631620927219</v>
       </c>
       <c r="D43">
-        <v>-0.00244782705438224</v>
+        <v>-0.001800996294509431</v>
       </c>
       <c r="E43">
-        <v>-0.002294859081538473</v>
+        <v>-0.003016227937662772</v>
       </c>
       <c r="F43">
-        <v>-0.001665446922022835</v>
+        <v>-0.002408511719884408</v>
       </c>
       <c r="G43">
-        <v>-0.003475447025048616</v>
+        <v>-0.003914444960427579</v>
       </c>
       <c r="H43">
-        <v>-0.003828294510803899</v>
+        <v>-0.00328783057503526</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.3260375300221452</v>
+        <v>-0.02410931833852729</v>
       </c>
       <c r="C44">
-        <v>0.2463285423658921</v>
+        <v>0.01620114474737309</v>
       </c>
       <c r="D44">
-        <v>-0.1716580650131642</v>
+        <v>-0.01772886239572595</v>
       </c>
       <c r="E44">
-        <v>-0.2198389461089841</v>
+        <v>-0.0145372632574519</v>
       </c>
       <c r="F44">
-        <v>-0.182215163150721</v>
+        <v>-0.02236805195805013</v>
       </c>
       <c r="G44">
-        <v>-0.5191634546388724</v>
+        <v>-0.03476613704029472</v>
       </c>
       <c r="H44">
-        <v>-0.2815967772748037</v>
+        <v>-0.02859068612897564</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.1621003297817139</v>
+        <v>-0.02941532605543921</v>
       </c>
       <c r="C45">
-        <v>0.1017792944733765</v>
+        <v>0.01064965068816713</v>
       </c>
       <c r="D45">
-        <v>-0.09982455205757942</v>
+        <v>-0.01951665481959692</v>
       </c>
       <c r="E45">
-        <v>-0.1248326080134116</v>
+        <v>-0.01572952795854843</v>
       </c>
       <c r="F45">
-        <v>-0.1148185716647672</v>
+        <v>-0.02368107068970532</v>
       </c>
       <c r="G45">
-        <v>-0.2297835890303344</v>
+        <v>-0.04058672482696248</v>
       </c>
       <c r="H45">
-        <v>-0.1832510946109764</v>
+        <v>-0.03248694884421478</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.003088779183509747</v>
+        <v>-0.003080690732632959</v>
       </c>
       <c r="C46">
-        <v>0.0009592583986902746</v>
+        <v>0.0008065871821009145</v>
       </c>
       <c r="D46">
-        <v>-0.001925252202306679</v>
+        <v>-0.00304172352578271</v>
       </c>
       <c r="E46">
-        <v>-0.002685631466134001</v>
+        <v>-0.001566830250999829</v>
       </c>
       <c r="F46">
-        <v>-0.002519030150598628</v>
+        <v>-0.001524996787526462</v>
       </c>
       <c r="G46">
-        <v>-0.004005128168456554</v>
+        <v>-0.004289906958596724</v>
       </c>
       <c r="H46">
-        <v>-0.003346513794503406</v>
+        <v>-0.003497010264527376</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.5271426504248872</v>
+        <v>-0.579065062452884</v>
       </c>
       <c r="C47">
-        <v>0.436783076278948</v>
+        <v>0.5594249768571563</v>
       </c>
       <c r="D47">
-        <v>-0.2583638673647484</v>
+        <v>-0.4959516699277131</v>
       </c>
       <c r="E47">
-        <v>-0.2965592078249809</v>
+        <v>-0.3911769885397204</v>
       </c>
       <c r="F47">
-        <v>-0.3061404284094824</v>
+        <v>-0.4087898270213379</v>
       </c>
       <c r="G47">
-        <v>-0.6590137434334312</v>
+        <v>-0.8832399250543698</v>
       </c>
       <c r="H47">
-        <v>-0.5705761789948474</v>
+        <v>-0.04080116004934661</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.7807913715365719</v>
+        <v>-0.1448394309656686</v>
       </c>
       <c r="C48">
-        <v>0.6453898355112732</v>
+        <v>0.05842648235214248</v>
       </c>
       <c r="D48">
-        <v>-0.04159009066483888</v>
+        <v>-0.127162714506837</v>
       </c>
       <c r="E48">
-        <v>-0.2355698288057672</v>
+        <v>-0.09161637776257688</v>
       </c>
       <c r="F48">
-        <v>-0.5790503287755722</v>
+        <v>-0.06927586278078279</v>
       </c>
       <c r="G48">
-        <v>-1.34721462999429</v>
+        <v>-0.2290048669400352</v>
       </c>
       <c r="H48">
-        <v>-0.3070792241075533</v>
+        <v>-0.176562662557496</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.4186978432685049</v>
+        <v>-0.002114992066583985</v>
       </c>
       <c r="C49">
-        <v>0.2425438780645384</v>
+        <v>0.0006207453983551365</v>
       </c>
       <c r="D49">
-        <v>-0.177767766465621</v>
+        <v>-0.002173607497847476</v>
       </c>
       <c r="E49">
-        <v>-0.2886094049172452</v>
+        <v>-0.00204275777691443</v>
       </c>
       <c r="F49">
-        <v>-0.3476434042534137</v>
+        <v>-0.001682096321161492</v>
       </c>
       <c r="G49">
-        <v>-0.521863188480775</v>
+        <v>-0.003339863795268086</v>
       </c>
       <c r="H49">
-        <v>-0.3495956746747165</v>
+        <v>-0.002806025842424978</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.4496326523069977</v>
+        <v>-0.002938122988742707</v>
       </c>
       <c r="C50">
-        <v>0.5646892345761526</v>
+        <v>0.001072986762481271</v>
       </c>
       <c r="D50">
-        <v>-0.6124667172779054</v>
+        <v>-0.002487214691718412</v>
       </c>
       <c r="E50">
-        <v>-0.1799402793922953</v>
+        <v>-0.001817492931526291</v>
       </c>
       <c r="F50">
-        <v>-0.3825343226494163</v>
+        <v>-0.002423214884444695</v>
       </c>
       <c r="G50">
-        <v>-0.4225305666854941</v>
+        <v>-0.003759217402151705</v>
       </c>
       <c r="H50">
-        <v>-0.3690896631245017</v>
+        <v>-0.003544372103024781</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.1388953295611288</v>
+        <v>-0.002849121865378825</v>
       </c>
       <c r="C51">
-        <v>0.09758767813843622</v>
+        <v>0.001880824388553516</v>
       </c>
       <c r="D51">
-        <v>-0.09008685716169341</v>
+        <v>-0.002216576782084691</v>
       </c>
       <c r="E51">
-        <v>-0.09635467929186811</v>
+        <v>-0.002155311740118686</v>
       </c>
       <c r="F51">
-        <v>-0.1010830860259594</v>
+        <v>-0.001803184694350876</v>
       </c>
       <c r="G51">
-        <v>-0.2289502870072932</v>
+        <v>-0.004017537784829177</v>
       </c>
       <c r="H51">
-        <v>-0.1584339039304657</v>
+        <v>-0.003083865569405884</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.4276076787788188</v>
+        <v>-0.2827163158555216</v>
       </c>
       <c r="C52">
-        <v>0.3721421721209108</v>
+        <v>0.2428933585713012</v>
       </c>
       <c r="D52">
-        <v>-0.2369579106393174</v>
+        <v>-0.3041779081050381</v>
       </c>
       <c r="E52">
-        <v>-0.2423722391023461</v>
+        <v>-0.1927563744919418</v>
       </c>
       <c r="F52">
-        <v>-0.2724001127661773</v>
+        <v>-0.1569238457813485</v>
       </c>
       <c r="G52">
-        <v>-0.5858197378160864</v>
+        <v>-0.3846448567365736</v>
       </c>
       <c r="H52">
-        <v>-0.237724630827479</v>
+        <v>-0.3137289728041597</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.0960281588782546</v>
+        <v>-0.4513039964979161</v>
       </c>
       <c r="C53">
-        <v>0.06128625365764395</v>
+        <v>0.4780569032137548</v>
       </c>
       <c r="D53">
-        <v>-0.1206192408717976</v>
+        <v>-0.3801139610832147</v>
       </c>
       <c r="E53">
-        <v>-0.0978479957140673</v>
+        <v>-0.2535598318299024</v>
       </c>
       <c r="F53">
-        <v>-0.104236634285296</v>
+        <v>-0.3727899873721797</v>
       </c>
       <c r="G53">
-        <v>-0.1563257485495545</v>
+        <v>-0.682489607356108</v>
       </c>
       <c r="H53">
-        <v>-0.1291355876235288</v>
+        <v>-0.3009601916517992</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.3969100875699597</v>
+        <v>-0.002405732548967602</v>
       </c>
       <c r="C54">
-        <v>0.3293981537742054</v>
+        <v>0.00143397748185338</v>
       </c>
       <c r="D54">
-        <v>-0.09287831817090074</v>
+        <v>-0.001742035882697137</v>
       </c>
       <c r="E54">
-        <v>-0.1448834053651655</v>
+        <v>-0.002821387916189088</v>
       </c>
       <c r="F54">
-        <v>-0.2017662300967587</v>
+        <v>-0.001328642460148768</v>
       </c>
       <c r="G54">
-        <v>-0.7997053227260884</v>
+        <v>-0.003314528010318444</v>
       </c>
       <c r="H54">
-        <v>-0.2411999493105539</v>
+        <v>-0.003110252680904287</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.3701818094957043</v>
+        <v>-0.4007237926038267</v>
       </c>
       <c r="C55">
-        <v>0.3550025955095037</v>
+        <v>0.2817480504884192</v>
       </c>
       <c r="D55">
-        <v>-0.1198254490734686</v>
+        <v>-0.1817776956283498</v>
       </c>
       <c r="E55">
-        <v>-0.1749656298684963</v>
+        <v>-0.206447642115429</v>
       </c>
       <c r="F55">
-        <v>-0.3097990586361737</v>
+        <v>-0.1417507563141136</v>
       </c>
       <c r="G55">
-        <v>-0.4962474155515271</v>
+        <v>-0.549970357214424</v>
       </c>
       <c r="H55">
-        <v>-0.3250198682417653</v>
+        <v>-0.424352068857169</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.3846077507753495</v>
+        <v>-0.1814640870130398</v>
       </c>
       <c r="C56">
-        <v>0.3113401812564494</v>
+        <v>0.07655897481080175</v>
       </c>
       <c r="D56">
-        <v>-0.2595138327078954</v>
+        <v>-0.1332382186441644</v>
       </c>
       <c r="E56">
-        <v>-0.2799787144702567</v>
+        <v>-0.1396776168557811</v>
       </c>
       <c r="F56">
-        <v>-0.2450194427018577</v>
+        <v>-0.1337186343259319</v>
       </c>
       <c r="G56">
-        <v>-0.4805781434299397</v>
+        <v>-0.2092524985679373</v>
       </c>
       <c r="H56">
-        <v>-0.2804201191843592</v>
+        <v>-0.2011027016138863</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.002287077860699387</v>
+        <v>-0.353464051889906</v>
       </c>
       <c r="C57">
-        <v>0.001029167556985479</v>
+        <v>0.3958700884555046</v>
       </c>
       <c r="D57">
-        <v>-0.002115905307417418</v>
+        <v>-0.2481409210822163</v>
       </c>
       <c r="E57">
-        <v>-0.00166061066454326</v>
+        <v>-0.2298480235852148</v>
       </c>
       <c r="F57">
-        <v>-0.002199724548118895</v>
+        <v>-0.1115186019127365</v>
       </c>
       <c r="G57">
-        <v>-0.00388385245142498</v>
+        <v>-0.4992117112948155</v>
       </c>
       <c r="H57">
-        <v>-0.002311346381044758</v>
+        <v>-0.2620830554731665</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1779172354673544</v>
+        <v>-0.6368070046576574</v>
       </c>
       <c r="C58">
-        <v>0.06927844531167898</v>
+        <v>0.407099042884168</v>
       </c>
       <c r="D58">
-        <v>-0.1404508704373696</v>
+        <v>-0.1101434109527075</v>
       </c>
       <c r="E58">
-        <v>-0.1389233124835728</v>
+        <v>-0.2690090159801117</v>
       </c>
       <c r="F58">
-        <v>-0.09088998377777491</v>
+        <v>-0.3821039962461957</v>
       </c>
       <c r="G58">
-        <v>-0.2461780228049546</v>
+        <v>-1.139268489945703</v>
       </c>
       <c r="H58">
-        <v>-0.1783703749249732</v>
+        <v>-0.3860705368721751</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.02166789514190699</v>
+        <v>-0.1431092903893689</v>
       </c>
       <c r="C59">
-        <v>0.01386196679401327</v>
+        <v>0.1106701959317757</v>
       </c>
       <c r="D59">
-        <v>-0.01947403566269021</v>
+        <v>-0.0750470054504644</v>
       </c>
       <c r="E59">
-        <v>-0.01900343504183791</v>
+        <v>-0.08105318290872583</v>
       </c>
       <c r="F59">
-        <v>-0.01961878810355829</v>
+        <v>-0.1285530703676541</v>
       </c>
       <c r="G59">
-        <v>-0.03145634549659371</v>
+        <v>-0.2171304229728213</v>
       </c>
       <c r="H59">
-        <v>-0.02597854964506794</v>
+        <v>-0.173812537975355</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.3180148409785828</v>
+        <v>-0.002454295820328232</v>
       </c>
       <c r="C60">
-        <v>0.2050503872499447</v>
+        <v>0.00144858548820795</v>
       </c>
       <c r="D60">
-        <v>-0.18652078604487</v>
+        <v>-0.001827677657945139</v>
       </c>
       <c r="E60">
-        <v>-0.1179428606842636</v>
+        <v>-0.002213376405658076</v>
       </c>
       <c r="F60">
-        <v>-0.2140338222685478</v>
+        <v>-0.002044844209175869</v>
       </c>
       <c r="G60">
-        <v>-0.4993156762175991</v>
+        <v>-0.003553066954624301</v>
       </c>
       <c r="H60">
-        <v>-0.3863659967997332</v>
+        <v>-0.002986028717347768</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.002565617057541417</v>
+        <v>-0.1328377135881207</v>
       </c>
       <c r="C61">
-        <v>0.001601982579738304</v>
+        <v>0.1008320186740921</v>
       </c>
       <c r="D61">
-        <v>-0.002009933509839433</v>
+        <v>-0.1619672316667069</v>
       </c>
       <c r="E61">
-        <v>-0.00271211975779984</v>
+        <v>-0.135535589526621</v>
       </c>
       <c r="F61">
-        <v>-0.001186100282105803</v>
+        <v>-0.1008773916471376</v>
       </c>
       <c r="G61">
-        <v>-0.00392906704687394</v>
+        <v>-0.1771285734801212</v>
       </c>
       <c r="H61">
-        <v>-0.002632149040936278</v>
+        <v>-0.118794330913976</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.5644088165159052</v>
+        <v>-0.002626276048999735</v>
       </c>
       <c r="C62">
-        <v>0.7171606068361378</v>
+        <v>0.001224629743305447</v>
       </c>
       <c r="D62">
-        <v>-0.6560498013119317</v>
+        <v>-0.002267215927076145</v>
       </c>
       <c r="E62">
-        <v>-0.2687330933358734</v>
+        <v>-0.002197806422242861</v>
       </c>
       <c r="F62">
-        <v>-0.3594143069794272</v>
+        <v>-0.002728237272589174</v>
       </c>
       <c r="G62">
-        <v>-0.6169610528666424</v>
+        <v>-0.003173610013094798</v>
       </c>
       <c r="H62">
-        <v>-0.2491275341549335</v>
+        <v>-0.003103125983750074</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4174943628978691</v>
+        <v>-0.002574868764278483</v>
       </c>
       <c r="C63">
-        <v>0.3919255354466117</v>
+        <v>0.00154592018535934</v>
       </c>
       <c r="D63">
-        <v>-0.431398023475728</v>
+        <v>-0.001647715692619932</v>
       </c>
       <c r="E63">
-        <v>-0.2759889417059133</v>
+        <v>-0.002146825207523371</v>
       </c>
       <c r="F63">
-        <v>-0.277806668099397</v>
+        <v>-0.002293173868492738</v>
       </c>
       <c r="G63">
-        <v>-0.5284469483451893</v>
+        <v>-0.00375945754576091</v>
       </c>
       <c r="H63">
-        <v>-0.2211446130303991</v>
+        <v>-0.002972856434030182</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.01715798497814599</v>
+        <v>-0.2946706572517319</v>
       </c>
       <c r="C64">
-        <v>0.0111077769352777</v>
+        <v>0.341804395166005</v>
       </c>
       <c r="D64">
-        <v>-0.01567848594022642</v>
+        <v>-0.1969833393514409</v>
       </c>
       <c r="E64">
-        <v>-0.01319967811861412</v>
+        <v>-0.1648752376785302</v>
       </c>
       <c r="F64">
-        <v>-0.01746596913336593</v>
+        <v>-0.1373294113465922</v>
       </c>
       <c r="G64">
-        <v>-0.0330982655413696</v>
+        <v>-0.3985058243469805</v>
       </c>
       <c r="H64">
-        <v>-0.02068240697216329</v>
+        <v>-0.3377824357665463</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.5484722027869853</v>
+        <v>-0.002880882498423323</v>
       </c>
       <c r="C65">
-        <v>0.6806527103133901</v>
+        <v>0.002206083493780982</v>
       </c>
       <c r="D65">
-        <v>-0.169435601977438</v>
+        <v>-0.00202012860445536</v>
       </c>
       <c r="E65">
-        <v>-0.05866176930112378</v>
+        <v>-0.00172653846183572</v>
       </c>
       <c r="F65">
-        <v>-0.3821554369374227</v>
+        <v>-0.002650420092089877</v>
       </c>
       <c r="G65">
-        <v>-1.080748944635096</v>
+        <v>-0.003965513828230722</v>
       </c>
       <c r="H65">
-        <v>-0.2125489223682811</v>
+        <v>-0.002764807512161462</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.6726701372791877</v>
+        <v>-0.02748979528902182</v>
       </c>
       <c r="C66">
-        <v>0.6782491511605433</v>
+        <v>0.01398931651890438</v>
       </c>
       <c r="D66">
-        <v>-0.3930763100527072</v>
+        <v>-0.01956121959141263</v>
       </c>
       <c r="E66">
-        <v>-0.06988357369080621</v>
+        <v>-0.01974696513221005</v>
       </c>
       <c r="F66">
-        <v>-0.528817986141308</v>
+        <v>-0.01639997181083066</v>
       </c>
       <c r="G66">
-        <v>-0.8107994345586995</v>
+        <v>-0.039487279761775</v>
       </c>
       <c r="H66">
-        <v>-0.5839010949113513</v>
+        <v>-0.0315194098736974</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.2962827595244364</v>
+        <v>-0.3807597663917537</v>
       </c>
       <c r="C67">
-        <v>0.2430768557068811</v>
+        <v>0.4002265098702292</v>
       </c>
       <c r="D67">
-        <v>-0.1913064300913688</v>
+        <v>-0.2182901661568422</v>
       </c>
       <c r="E67">
-        <v>-0.2409433969159238</v>
+        <v>-0.1171422421582948</v>
       </c>
       <c r="F67">
-        <v>-0.3548097982123015</v>
+        <v>-0.3662283854585946</v>
       </c>
       <c r="G67">
-        <v>-0.4238990169287365</v>
+        <v>-0.6404585758023915</v>
       </c>
       <c r="H67">
-        <v>-0.2009643930142622</v>
+        <v>-0.2174753698948323</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.00264684048127593</v>
+        <v>-0.2989222324415287</v>
       </c>
       <c r="C68">
-        <v>0.001626203844873257</v>
+        <v>0.2668325393450491</v>
       </c>
       <c r="D68">
-        <v>-0.002050464310379761</v>
+        <v>-0.2338099190912503</v>
       </c>
       <c r="E68">
-        <v>-0.002344682810917286</v>
+        <v>-0.1104468466910661</v>
       </c>
       <c r="F68">
-        <v>-0.001132869208430292</v>
+        <v>-0.3005720554589571</v>
       </c>
       <c r="G68">
-        <v>-0.003884827608329536</v>
+        <v>-0.3685708210236377</v>
       </c>
       <c r="H68">
-        <v>-0.00320394521784158</v>
+        <v>-0.3470603425019301</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.4401665738657137</v>
+        <v>-0.1691532177857425</v>
       </c>
       <c r="C69">
-        <v>0.4219674938530816</v>
+        <v>0.09662962238778906</v>
       </c>
       <c r="D69">
-        <v>-0.3188472363818743</v>
+        <v>-0.1293051204714072</v>
       </c>
       <c r="E69">
-        <v>-0.2449424975091965</v>
+        <v>-0.1442373787277325</v>
       </c>
       <c r="F69">
-        <v>-0.2496449835045274</v>
+        <v>-0.08074159010706218</v>
       </c>
       <c r="G69">
-        <v>-0.6348085347623537</v>
+        <v>-0.2407854152836817</v>
       </c>
       <c r="H69">
-        <v>-0.2948685961856314</v>
+        <v>-0.1698121974305001</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5270237142222102</v>
+        <v>-0.1358258627296868</v>
       </c>
       <c r="C70">
-        <v>0.5167886833971655</v>
+        <v>0.0521971962170051</v>
       </c>
       <c r="D70">
-        <v>-0.4537165287628531</v>
+        <v>-0.08516295039963206</v>
       </c>
       <c r="E70">
-        <v>-0.1402315838443431</v>
+        <v>-0.1445511080564451</v>
       </c>
       <c r="F70">
-        <v>-0.4147421294507949</v>
+        <v>-0.06223880196336515</v>
       </c>
       <c r="G70">
-        <v>-0.5605936076420176</v>
+        <v>-0.2205817961337188</v>
       </c>
       <c r="H70">
-        <v>-0.4886840747830024</v>
+        <v>-0.1716576180833406</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.7843124611089314</v>
+        <v>-0.1291468681184804</v>
       </c>
       <c r="C71">
-        <v>0.4899826230283204</v>
+        <v>0.07802889923529982</v>
       </c>
       <c r="D71">
-        <v>-0.1205426859099305</v>
+        <v>-0.1502985171848696</v>
       </c>
       <c r="E71">
-        <v>-0.1766984058116672</v>
+        <v>-0.1334532917936146</v>
       </c>
       <c r="F71">
-        <v>-0.5539996613142389</v>
+        <v>-0.05437444275235363</v>
       </c>
       <c r="G71">
-        <v>-1.215771135197544</v>
+        <v>-0.2142864922701359</v>
       </c>
       <c r="H71">
-        <v>-0.5133429887044095</v>
+        <v>-0.1069214793395174</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.003364083576745435</v>
+        <v>-0.3614455401520481</v>
       </c>
       <c r="C72">
-        <v>0.00229107689689372</v>
+        <v>0.3218779197398344</v>
       </c>
       <c r="D72">
-        <v>-0.002050634450286558</v>
+        <v>-0.3901067566957078</v>
       </c>
       <c r="E72">
-        <v>-0.0025288099258542</v>
+        <v>-0.2569933137376523</v>
       </c>
       <c r="F72">
-        <v>-0.001453840927963882</v>
+        <v>-0.3396369932823329</v>
       </c>
       <c r="G72">
-        <v>-0.004467629287292133</v>
+        <v>-0.4922567839420481</v>
       </c>
       <c r="H72">
-        <v>-0.003405552501866517</v>
+        <v>-0.1308175069876813</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1591618749017254</v>
+        <v>-0.4305934371578627</v>
       </c>
       <c r="C73">
-        <v>0.08898036998311783</v>
+        <v>0.3607735323021561</v>
       </c>
       <c r="D73">
-        <v>-0.10390251016113</v>
+        <v>-0.3180448027019794</v>
       </c>
       <c r="E73">
-        <v>-0.1105553594123203</v>
+        <v>-0.208255664902464</v>
       </c>
       <c r="F73">
-        <v>-0.08081982881780339</v>
+        <v>-0.3331341972926547</v>
       </c>
       <c r="G73">
-        <v>-0.2384247403453743</v>
+        <v>-0.5477338412066566</v>
       </c>
       <c r="H73">
-        <v>-0.193194058604432</v>
+        <v>-0.3843953500471202</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5518349816577843</v>
+        <v>-0.4180571285262774</v>
       </c>
       <c r="C74">
-        <v>0.3795219780581385</v>
+        <v>0.4385784048377356</v>
       </c>
       <c r="D74">
-        <v>-0.1779230825973054</v>
+        <v>-0.1565157312975281</v>
       </c>
       <c r="E74">
-        <v>-0.2271143238880771</v>
+        <v>-0.1827177672425025</v>
       </c>
       <c r="F74">
-        <v>-0.1743454027842326</v>
+        <v>-0.1930739362178245</v>
       </c>
       <c r="G74">
-        <v>-0.9604032516144174</v>
+        <v>-0.6397447419250892</v>
       </c>
       <c r="H74">
-        <v>-0.4705392207035267</v>
+        <v>-0.3515916382169377</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.002062228716511677</v>
+        <v>-0.5109398635026947</v>
       </c>
       <c r="C75">
-        <v>0.001801640245269749</v>
+        <v>0.4590040747186657</v>
       </c>
       <c r="D75">
-        <v>-0.002099395791269058</v>
+        <v>-0.4163028974290861</v>
       </c>
       <c r="E75">
-        <v>-0.002531903326901625</v>
+        <v>-0.1726416229149057</v>
       </c>
       <c r="F75">
-        <v>-0.001101376725879491</v>
+        <v>-0.3736823248054558</v>
       </c>
       <c r="G75">
-        <v>-0.003148456829935086</v>
+        <v>-0.790738044094639</v>
       </c>
       <c r="H75">
-        <v>-0.002277326458640097</v>
+        <v>-0.2826222963028791</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.002750680828709376</v>
+        <v>-0.4084410662623537</v>
       </c>
       <c r="C76">
-        <v>0.0006618492025382423</v>
+        <v>0.3634385603087343</v>
       </c>
       <c r="D76">
-        <v>-0.002307625399152732</v>
+        <v>-0.1558988062956119</v>
       </c>
       <c r="E76">
-        <v>-0.001889501759013212</v>
+        <v>0.09875697256642593</v>
       </c>
       <c r="F76">
-        <v>-0.002067731521625735</v>
+        <v>-0.3908253939747521</v>
       </c>
       <c r="G76">
-        <v>-0.003694041816974919</v>
+        <v>-0.9774126757938024</v>
       </c>
       <c r="H76">
-        <v>-0.003626587595368067</v>
+        <v>-0.1552851823191752</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.002324265537502714</v>
+        <v>-0.003206013782987901</v>
       </c>
       <c r="C77">
-        <v>0.001498634633485539</v>
+        <v>0.0006771659969204773</v>
       </c>
       <c r="D77">
-        <v>-0.001592724438635503</v>
+        <v>-0.002670226749707569</v>
       </c>
       <c r="E77">
-        <v>-0.001835302706152301</v>
+        <v>-0.001603593792575425</v>
       </c>
       <c r="F77">
-        <v>-0.002130255207465612</v>
+        <v>-0.002817022670274485</v>
       </c>
       <c r="G77">
-        <v>-0.003440654336208865</v>
+        <v>-0.003869074188873101</v>
       </c>
       <c r="H77">
-        <v>-0.003111833967363174</v>
+        <v>-0.003766110648095453</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.3364056564833148</v>
+        <v>-0.3378839363966362</v>
       </c>
       <c r="C78">
-        <v>0.4199326175185435</v>
+        <v>0.3024483292889097</v>
       </c>
       <c r="D78">
-        <v>-0.3725510965515563</v>
+        <v>-0.2488024634403714</v>
       </c>
       <c r="E78">
-        <v>-0.2001525165238086</v>
+        <v>-0.1459989248409937</v>
       </c>
       <c r="F78">
-        <v>-0.1423690491121088</v>
+        <v>-0.2779472552976478</v>
       </c>
       <c r="G78">
-        <v>-0.4631010211942423</v>
+        <v>-0.5003421825950393</v>
       </c>
       <c r="H78">
-        <v>-0.2948480561027128</v>
+        <v>-0.2445667998798993</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.001971108195827808</v>
+        <v>-0.00273667799092692</v>
       </c>
       <c r="C79">
-        <v>0.001351069610416837</v>
+        <v>0.0001953729524464298</v>
       </c>
       <c r="D79">
-        <v>-0.001526692180616351</v>
+        <v>-0.002748504508133546</v>
       </c>
       <c r="E79">
-        <v>-0.001836623257048736</v>
+        <v>-0.001589998664872479</v>
       </c>
       <c r="F79">
-        <v>-0.001636698582690768</v>
+        <v>-0.002006580545982303</v>
       </c>
       <c r="G79">
-        <v>-0.003387575514798221</v>
+        <v>-0.003854572322686739</v>
       </c>
       <c r="H79">
-        <v>-0.002710501182806895</v>
+        <v>-0.003356488994800966</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.002761919742977325</v>
+        <v>-0.4334939378947804</v>
       </c>
       <c r="C80">
-        <v>0.0002336449813955084</v>
+        <v>0.4822661411000138</v>
       </c>
       <c r="D80">
-        <v>-0.002793865351693543</v>
+        <v>-0.3558147397084082</v>
       </c>
       <c r="E80">
-        <v>-0.00148761204155112</v>
+        <v>-0.1592261684066444</v>
       </c>
       <c r="F80">
-        <v>-0.001506651101147204</v>
+        <v>-0.3785129509640516</v>
       </c>
       <c r="G80">
-        <v>-0.003824796185624822</v>
+        <v>-0.676764375747938</v>
       </c>
       <c r="H80">
-        <v>-0.003697824811045267</v>
+        <v>-0.2591903504746269</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1425097816837412</v>
+        <v>-0.02416229668245359</v>
       </c>
       <c r="C81">
-        <v>0.1017349408545099</v>
+        <v>0.0128784854473469</v>
       </c>
       <c r="D81">
-        <v>-0.1256447323886969</v>
+        <v>-0.02260529659846661</v>
       </c>
       <c r="E81">
-        <v>-0.1025369289671704</v>
+        <v>-0.01476322452522394</v>
       </c>
       <c r="F81">
-        <v>-0.09499456370927391</v>
+        <v>-0.01854817665336909</v>
       </c>
       <c r="G81">
-        <v>-0.1910777489522823</v>
+        <v>-0.0356499841605819</v>
       </c>
       <c r="H81">
-        <v>-0.1877074571092303</v>
+        <v>-0.02845195222770155</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.1718341046635484</v>
+        <v>-0.1661247888912436</v>
       </c>
       <c r="C82">
-        <v>0.07063581957674502</v>
+        <v>0.08485031241197204</v>
       </c>
       <c r="D82">
-        <v>-0.1557825930321069</v>
+        <v>-0.1416555709865811</v>
       </c>
       <c r="E82">
-        <v>-0.1337976708128068</v>
+        <v>-0.122005018749297</v>
       </c>
       <c r="F82">
-        <v>-0.1227421084564106</v>
+        <v>-0.1390240993497277</v>
       </c>
       <c r="G82">
-        <v>-0.2197970083172057</v>
+        <v>-0.1948449541891411</v>
       </c>
       <c r="H82">
-        <v>-0.155608285450882</v>
+        <v>-0.1812434628921813</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.002198469164703045</v>
+        <v>-0.1515316610044166</v>
       </c>
       <c r="C83">
-        <v>0.001207433265967286</v>
+        <v>0.08246861276772775</v>
       </c>
       <c r="D83">
-        <v>-0.002214313763144156</v>
+        <v>-0.1309889252743122</v>
       </c>
       <c r="E83">
-        <v>-0.001773529856866599</v>
+        <v>-0.06094668721428042</v>
       </c>
       <c r="F83">
-        <v>-0.001772807919115401</v>
+        <v>-0.08275087103507463</v>
       </c>
       <c r="G83">
-        <v>-0.003560262953160435</v>
+        <v>-0.2536498235997977</v>
       </c>
       <c r="H83">
-        <v>-0.002639868470267032</v>
+        <v>-0.1655669914201355</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3276563876796791</v>
+        <v>-0.3902699240989355</v>
       </c>
       <c r="C84">
-        <v>0.1088309606568451</v>
+        <v>0.2955659324670775</v>
       </c>
       <c r="D84">
-        <v>-0.2607034011781801</v>
+        <v>-0.2544320384856231</v>
       </c>
       <c r="E84">
-        <v>-0.3063902296061046</v>
+        <v>-0.0187437586465061</v>
       </c>
       <c r="F84">
-        <v>-0.2526477489476963</v>
+        <v>-0.2626617121455713</v>
       </c>
       <c r="G84">
-        <v>-0.4247884238392139</v>
+        <v>-0.6122784256606081</v>
       </c>
       <c r="H84">
-        <v>-0.3156200146900272</v>
+        <v>-0.3119440541252986</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.02381728058498145</v>
+        <v>-0.2745234944005018</v>
       </c>
       <c r="C85">
-        <v>0.01742842860677167</v>
+        <v>0.2189866159210231</v>
       </c>
       <c r="D85">
-        <v>-0.01929225892797215</v>
+        <v>-0.2594798529172928</v>
       </c>
       <c r="E85">
-        <v>-0.01866269108277283</v>
+        <v>-0.1269826180080122</v>
       </c>
       <c r="F85">
-        <v>-0.01818754479316069</v>
+        <v>-0.1445961289832796</v>
       </c>
       <c r="G85">
-        <v>-0.03362089410150723</v>
+        <v>-0.4838375414164879</v>
       </c>
       <c r="H85">
-        <v>-0.027964234020235</v>
+        <v>-0.2559738116704622</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.5534544748649042</v>
+        <v>-0.00301258224739321</v>
       </c>
       <c r="C86">
-        <v>0.5987311475909867</v>
+        <v>0.001407692672455968</v>
       </c>
       <c r="D86">
-        <v>-0.4065916734491196</v>
+        <v>-0.002439386299507503</v>
       </c>
       <c r="E86">
-        <v>-0.1436254123715319</v>
+        <v>-0.002175752938721746</v>
       </c>
       <c r="F86">
-        <v>-0.1324320625566431</v>
+        <v>-0.001884655400869481</v>
       </c>
       <c r="G86">
-        <v>-0.7316383580231389</v>
+        <v>-0.00394158770802827</v>
       </c>
       <c r="H86">
-        <v>-0.6305984257861647</v>
+        <v>-0.003557516735686784</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.002309552545947796</v>
+        <v>-0.4900748547164863</v>
       </c>
       <c r="C87">
-        <v>0.002004949333840402</v>
+        <v>0.5032798256126704</v>
       </c>
       <c r="D87">
-        <v>-0.001615711752903979</v>
+        <v>-0.5059034135614807</v>
       </c>
       <c r="E87">
-        <v>-0.001847698373851727</v>
+        <v>-0.1323717818900685</v>
       </c>
       <c r="F87">
-        <v>-0.001783778003132399</v>
+        <v>-0.2903976743067219</v>
       </c>
       <c r="G87">
-        <v>-0.00378928520132135</v>
+        <v>-0.7919031565639438</v>
       </c>
       <c r="H87">
-        <v>-0.002531479676681183</v>
+        <v>-0.2607949314483607</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.4107909157092024</v>
+        <v>-0.1811746459966882</v>
       </c>
       <c r="C88">
-        <v>0.3378941406627914</v>
+        <v>0.0819239148869695</v>
       </c>
       <c r="D88">
-        <v>-0.3685444106396433</v>
+        <v>-0.08168800459951298</v>
       </c>
       <c r="E88">
-        <v>-0.3021735750875229</v>
+        <v>-0.1295320401128432</v>
       </c>
       <c r="F88">
-        <v>-0.2699825898985774</v>
+        <v>-0.1108967763505982</v>
       </c>
       <c r="G88">
-        <v>-0.5309711311568254</v>
+        <v>-0.2652675427239901</v>
       </c>
       <c r="H88">
-        <v>-0.2786381922160541</v>
+        <v>-0.196256977136926</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.135383246073705</v>
+        <v>-0.4248368717124669</v>
       </c>
       <c r="C89">
-        <v>0.07826805351720369</v>
+        <v>0.2839178667660085</v>
       </c>
       <c r="D89">
-        <v>-0.1199112668742362</v>
+        <v>-0.1613576834412885</v>
       </c>
       <c r="E89">
-        <v>-0.04790091816692914</v>
+        <v>-0.2684600124862598</v>
       </c>
       <c r="F89">
-        <v>-0.0629622565396855</v>
+        <v>-0.1963541637363472</v>
       </c>
       <c r="G89">
-        <v>-0.224419641364333</v>
+        <v>-0.5514440213455594</v>
       </c>
       <c r="H89">
-        <v>-0.1826282737478571</v>
+        <v>-0.4278559246539946</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.002850851854283518</v>
+        <v>-0.4392988048885461</v>
       </c>
       <c r="C90">
-        <v>0.001118167919706651</v>
+        <v>0.5005486713541201</v>
       </c>
       <c r="D90">
-        <v>-0.002537061192589735</v>
+        <v>-0.3686024178481627</v>
       </c>
       <c r="E90">
-        <v>-0.002264484132019649</v>
+        <v>-0.04787850597328883</v>
       </c>
       <c r="F90">
-        <v>-0.002104763857097805</v>
+        <v>-0.3363795767751022</v>
       </c>
       <c r="G90">
-        <v>-0.003732317327136005</v>
+        <v>-0.8508534077737985</v>
       </c>
       <c r="H90">
-        <v>-0.003290616182026467</v>
+        <v>-0.1366006609973259</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.00255271195257149</v>
+        <v>-0.3153100253829069</v>
       </c>
       <c r="C91">
-        <v>0.001068250008931093</v>
+        <v>0.2489025656083122</v>
       </c>
       <c r="D91">
-        <v>-0.002309372337347384</v>
+        <v>-0.2288705550175886</v>
       </c>
       <c r="E91">
-        <v>-0.001882049458933993</v>
+        <v>-0.1217024799235187</v>
       </c>
       <c r="F91">
-        <v>-0.002217862008916094</v>
+        <v>-0.3394714425869464</v>
       </c>
       <c r="G91">
-        <v>-0.003495083324023483</v>
+        <v>-0.42063726846275</v>
       </c>
       <c r="H91">
-        <v>-0.003226104294330807</v>
+        <v>-0.3160248163800436</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6876894572861636</v>
+        <v>-0.002603216773774593</v>
       </c>
       <c r="C92">
-        <v>0.3581166185929813</v>
+        <v>0.001396995685209951</v>
       </c>
       <c r="D92">
-        <v>-0.1313912137990651</v>
+        <v>-0.002160681332193683</v>
       </c>
       <c r="E92">
-        <v>-0.4837989272220784</v>
+        <v>-0.002367776306998702</v>
       </c>
       <c r="F92">
-        <v>-0.2926636127277505</v>
+        <v>-0.001838965304224447</v>
       </c>
       <c r="G92">
-        <v>-0.9508536687385839</v>
+        <v>-0.003639239464433966</v>
       </c>
       <c r="H92">
-        <v>-0.6265921704856199</v>
+        <v>-0.003080068450110064</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3967045667515284</v>
+        <v>-0.003208837080354836</v>
       </c>
       <c r="C93">
-        <v>0.3067082273022714</v>
+        <v>0.001247600073789563</v>
       </c>
       <c r="D93">
-        <v>-0.2478098381675511</v>
+        <v>-0.001888267819255775</v>
       </c>
       <c r="E93">
-        <v>-0.3645964983355984</v>
+        <v>-0.002362326524859035</v>
       </c>
       <c r="F93">
-        <v>-0.2808884051719404</v>
+        <v>-0.00223676625579664</v>
       </c>
       <c r="G93">
-        <v>-0.5649669689174259</v>
+        <v>-0.004113170887633007</v>
       </c>
       <c r="H93">
-        <v>-0.2557170913318222</v>
+        <v>-0.003820109725549325</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.002875455360175402</v>
+        <v>-0.003200235531149688</v>
       </c>
       <c r="C94">
-        <v>0.001518149160944485</v>
+        <v>0.001118646008797169</v>
       </c>
       <c r="D94">
-        <v>-0.002164990619677279</v>
+        <v>-0.002481280991690535</v>
       </c>
       <c r="E94">
-        <v>-0.002423108921955363</v>
+        <v>-0.001850997804585899</v>
       </c>
       <c r="F94">
-        <v>-0.002128179101208798</v>
+        <v>-0.002332198816229319</v>
       </c>
       <c r="G94">
-        <v>-0.00371647542641125</v>
+        <v>-0.004212951828136286</v>
       </c>
       <c r="H94">
-        <v>-0.003320517672248109</v>
+        <v>-0.003622161874154766</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.3097746730084121</v>
+        <v>-0.2915113469760305</v>
       </c>
       <c r="C95">
-        <v>0.2700723784780791</v>
+        <v>0.2974944102841242</v>
       </c>
       <c r="D95">
-        <v>-0.2171964151769244</v>
+        <v>-0.2389818830522275</v>
       </c>
       <c r="E95">
-        <v>-0.05576196449900546</v>
+        <v>-0.2116569444535467</v>
       </c>
       <c r="F95">
-        <v>-0.2293226172127074</v>
+        <v>-0.2132903572265484</v>
       </c>
       <c r="G95">
-        <v>-0.501744463642009</v>
+        <v>-0.4643520315362697</v>
       </c>
       <c r="H95">
-        <v>-0.3097697604643197</v>
+        <v>-0.209249946267435</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.002688695764464145</v>
+        <v>-0.2884107252644952</v>
       </c>
       <c r="C96">
-        <v>0.002183904658996262</v>
+        <v>0.2690409131777766</v>
       </c>
       <c r="D96">
-        <v>-0.001663992690371985</v>
+        <v>-0.2520060862142187</v>
       </c>
       <c r="E96">
-        <v>-0.002066651337657247</v>
+        <v>-0.2174074880922687</v>
       </c>
       <c r="F96">
-        <v>-0.001759104853680673</v>
+        <v>-0.3088903218950154</v>
       </c>
       <c r="G96">
-        <v>-0.003878912921060749</v>
+        <v>-0.3355140135610901</v>
       </c>
       <c r="H96">
-        <v>-0.003111156228963968</v>
+        <v>-0.2448323469446394</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.003318642652094606</v>
+        <v>-0.003363419711894829</v>
       </c>
       <c r="C97">
-        <v>0.002404376710003561</v>
+        <v>0.001213553510002137</v>
       </c>
       <c r="D97">
-        <v>-0.00234831487555064</v>
+        <v>-0.002156923842913637</v>
       </c>
       <c r="E97">
-        <v>-0.002593944801531613</v>
+        <v>-0.002186119915666179</v>
       </c>
       <c r="F97">
-        <v>-0.001904887484027993</v>
+        <v>-0.002957028906930739</v>
       </c>
       <c r="G97">
-        <v>-0.004281618052981719</v>
+        <v>-0.004232536395391604</v>
       </c>
       <c r="H97">
-        <v>-0.002977692693706729</v>
+        <v>-0.003467546564495987</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.002854727234472912</v>
+        <v>-0.1692266595628575</v>
       </c>
       <c r="C98">
-        <v>0.0002264288805926296</v>
+        <v>0.07375503448312358</v>
       </c>
       <c r="D98">
-        <v>-0.002658680805722859</v>
+        <v>-0.1323652894558841</v>
       </c>
       <c r="E98">
-        <v>-0.002284389597939428</v>
+        <v>-0.07901912409437678</v>
       </c>
       <c r="F98">
-        <v>-0.001775559714997956</v>
+        <v>-0.06067803747916439</v>
       </c>
       <c r="G98">
-        <v>-0.003952601630342857</v>
+        <v>-0.24903570661595</v>
       </c>
       <c r="H98">
-        <v>-0.003305774336526047</v>
+        <v>-0.2045418834548332</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.4904110759207372</v>
+        <v>-0.01933509677669441</v>
       </c>
       <c r="C99">
-        <v>0.5051276841381511</v>
+        <v>0.01290785401985449</v>
       </c>
       <c r="D99">
-        <v>-0.5077117336820998</v>
+        <v>-0.01766531321607073</v>
       </c>
       <c r="E99">
-        <v>-0.1774744454660152</v>
+        <v>-0.01923249565836655</v>
       </c>
       <c r="F99">
-        <v>-0.1266160707708537</v>
+        <v>-0.01473841389442111</v>
       </c>
       <c r="G99">
-        <v>-0.504585428030488</v>
+        <v>-0.03233876061477553</v>
       </c>
       <c r="H99">
-        <v>-0.638719068896524</v>
+        <v>-0.02359037875642904</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.555737718355712</v>
+        <v>-0.3481876829165047</v>
       </c>
       <c r="C100">
-        <v>0.4422611250798589</v>
+        <v>0.211635126686842</v>
       </c>
       <c r="D100">
-        <v>-0.1960189773408909</v>
+        <v>-0.1551700628886593</v>
       </c>
       <c r="E100">
-        <v>-0.4760856396443857</v>
+        <v>-0.129693582598516</v>
       </c>
       <c r="F100">
-        <v>-0.4185662408610096</v>
+        <v>-0.2335575370156952</v>
       </c>
       <c r="G100">
-        <v>-0.5725910662018812</v>
+        <v>-0.6451130729054454</v>
       </c>
       <c r="H100">
-        <v>-0.5886490241750081</v>
+        <v>-0.3498852124048693</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.00241378365019718</v>
+        <v>-0.3819766011440792</v>
       </c>
       <c r="C101">
-        <v>0.001471836121098744</v>
+        <v>0.2527212476317758</v>
       </c>
       <c r="D101">
-        <v>-0.001978056201523614</v>
+        <v>-0.3490449341955288</v>
       </c>
       <c r="E101">
-        <v>-0.001217718607275067</v>
+        <v>-0.3046682336813322</v>
       </c>
       <c r="F101">
-        <v>-0.001637998894642887</v>
+        <v>-0.3259179392733612</v>
       </c>
       <c r="G101">
-        <v>-0.003806319562807007</v>
+        <v>-0.3075573571945003</v>
       </c>
       <c r="H101">
-        <v>-0.003286722521673151</v>
+        <v>-0.345223206085324</v>
       </c>
     </row>
   </sheetData>
